--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF2BED-71D1-4ED1-B661-83D396FF2460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BBD519-DF98-4C8A-9529-25917DE6C39D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>loan calculator</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>request</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>banking</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>ار</t>
+  </si>
+  <si>
+    <t>صحة</t>
+  </si>
+  <si>
+    <t>كهرباء</t>
+  </si>
+  <si>
+    <t>الادمان</t>
+  </si>
+  <si>
+    <t>رخصة</t>
+  </si>
+  <si>
+    <t>تسجيل</t>
+  </si>
+  <si>
+    <t>مبنى</t>
   </si>
 </sst>
 </file>
@@ -346,13 +388,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -369,6 +414,76 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
